--- a/Мечты и не только.xlsx
+++ b/Мечты и не только.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Баги</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>подробнее говорить юзеру чё там не робит при краше сейва при выходе из приложения</t>
+  </si>
+  <si>
+    <t>размер и количество выбранных элементов в коллекции</t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -862,7 +865,7 @@
       <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="15" t="s">
@@ -881,6 +884,9 @@
       </c>
       <c r="H5" s="17" t="s">
         <v>13</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">

--- a/Мечты и не только.xlsx
+++ b/Мечты и не только.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Баги</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>размер и количество выбранных элементов в коллекции</t>
+  </si>
+  <si>
+    <t>Удалить неиспользуемую домашнюю страницу</t>
+  </si>
+  <si>
+    <t>Домашняя страница с последними, рекомендуемыми и/или популярными действиями и каким-то общим превью коллекции</t>
   </si>
 </sst>
 </file>
@@ -484,9 +490,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -494,6 +497,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,7 +785,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -824,7 +830,7 @@
       <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -842,10 +848,13 @@
       <c r="D3" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -859,7 +868,7 @@
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -914,7 +923,7 @@
       <c r="G7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="20" t="s">
         <v>74</v>
       </c>
     </row>
@@ -936,7 +945,7 @@
       <c r="F9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1009,7 +1018,7 @@
       </c>
     </row>
     <row r="17" spans="5:9" ht="57" x14ac:dyDescent="0.25">
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1020,7 +1029,7 @@
       </c>
     </row>
     <row r="18" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1067,7 +1076,7 @@
       </c>
     </row>
     <row r="25" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>67</v>
       </c>
       <c r="I25" s="11" t="s">
@@ -1079,9 +1088,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:9" ht="57" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Мечты и не только.xlsx
+++ b/Мечты и не только.xlsx
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -487,9 +487,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -499,7 +496,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -785,7 +782,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -830,7 +827,7 @@
       <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -868,7 +865,7 @@
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -923,7 +920,7 @@
       <c r="G7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>74</v>
       </c>
     </row>
@@ -945,7 +942,7 @@
       <c r="F9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1018,7 +1015,7 @@
       </c>
     </row>
     <row r="17" spans="5:9" ht="57" x14ac:dyDescent="0.25">
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1029,7 +1026,7 @@
       </c>
     </row>
     <row r="18" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1076,7 +1073,7 @@
       </c>
     </row>
     <row r="25" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>67</v>
       </c>
       <c r="I25" s="11" t="s">
